--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_LTBC1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_LTBC1_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="356">
   <si>
     <t>TestCases</t>
   </si>
@@ -895,6 +895,222 @@
   </si>
   <si>
     <t>IDEP7146438127871BM3</t>
+  </si>
+  <si>
+    <t>9331538738</t>
+  </si>
+  <si>
+    <t>Anusha</t>
+  </si>
+  <si>
+    <t>GauravHora73207@example.net</t>
+  </si>
+  <si>
+    <t>1971-07-25</t>
+  </si>
+  <si>
+    <t>975152835160151</t>
+  </si>
+  <si>
+    <t>577f2b7b412c413a</t>
+  </si>
+  <si>
+    <t>700281446362286</t>
+  </si>
+  <si>
+    <t>IDEP746113799331KELD</t>
+  </si>
+  <si>
+    <t>7675464051</t>
+  </si>
+  <si>
+    <t>Madhavi</t>
+  </si>
+  <si>
+    <t>RehmanBhat92202@example.net</t>
+  </si>
+  <si>
+    <t>1992-04-29</t>
+  </si>
+  <si>
+    <t>909816400949807</t>
+  </si>
+  <si>
+    <t>0684b30ec6fa7c6a</t>
+  </si>
+  <si>
+    <t>389978768283283</t>
+  </si>
+  <si>
+    <t>IDEP4761261346245Z2J</t>
+  </si>
+  <si>
+    <t>9768790104</t>
+  </si>
+  <si>
+    <t>Smriti</t>
+  </si>
+  <si>
+    <t>HanumanThaman56011@example.net</t>
+  </si>
+  <si>
+    <t>1995-07-20</t>
+  </si>
+  <si>
+    <t>567807397403570</t>
+  </si>
+  <si>
+    <t>a0a3b31891a5a9b1</t>
+  </si>
+  <si>
+    <t>048719953587085</t>
+  </si>
+  <si>
+    <t>IDEP461727858189AW59</t>
+  </si>
+  <si>
+    <t>7154884953</t>
+  </si>
+  <si>
+    <t>Chhavi</t>
+  </si>
+  <si>
+    <t>TarunDeo18208@example.net</t>
+  </si>
+  <si>
+    <t>1984-01-10</t>
+  </si>
+  <si>
+    <t>308279085942141</t>
+  </si>
+  <si>
+    <t>05bf0c55fc3b8e86</t>
+  </si>
+  <si>
+    <t>641804052556487</t>
+  </si>
+  <si>
+    <t>IDEP7614294588387ZMY</t>
+  </si>
+  <si>
+    <t>9839180837</t>
+  </si>
+  <si>
+    <t>Divya</t>
+  </si>
+  <si>
+    <t>DhanushJohal53007@example.net</t>
+  </si>
+  <si>
+    <t>1973-05-25</t>
+  </si>
+  <si>
+    <t>247641344988013</t>
+  </si>
+  <si>
+    <t>5f750e83c5656a1a</t>
+  </si>
+  <si>
+    <t>202895410444508</t>
+  </si>
+  <si>
+    <t>IDEP176414794468KDNS</t>
+  </si>
+  <si>
+    <t>9424856834</t>
+  </si>
+  <si>
+    <t>Ambika</t>
+  </si>
+  <si>
+    <t>HarpreetYadav11182@example.net</t>
+  </si>
+  <si>
+    <t>1977-03-02</t>
+  </si>
+  <si>
+    <t>445986865795457</t>
+  </si>
+  <si>
+    <t>9b65437a6d7ede43</t>
+  </si>
+  <si>
+    <t>686271428522492</t>
+  </si>
+  <si>
+    <t>IDEP461775374681G1RM</t>
+  </si>
+  <si>
+    <t>8443814172</t>
+  </si>
+  <si>
+    <t>Pushpa</t>
+  </si>
+  <si>
+    <t>CharlieLoyal23075@example.net</t>
+  </si>
+  <si>
+    <t>1979-09-05</t>
+  </si>
+  <si>
+    <t>780834156333104</t>
+  </si>
+  <si>
+    <t>320cf9199132c284</t>
+  </si>
+  <si>
+    <t>492244645963157</t>
+  </si>
+  <si>
+    <t>IDEP476151142489YFKB</t>
+  </si>
+  <si>
+    <t>7367913114</t>
+  </si>
+  <si>
+    <t>Naina</t>
+  </si>
+  <si>
+    <t>UmeshSubramaniam47129@example.net</t>
+  </si>
+  <si>
+    <t>1975-04-30</t>
+  </si>
+  <si>
+    <t>475483386789774</t>
+  </si>
+  <si>
+    <t>111699a7bd7bffb4</t>
+  </si>
+  <si>
+    <t>786388966621202</t>
+  </si>
+  <si>
+    <t>IDEP174651578387NXRZ</t>
+  </si>
+  <si>
+    <t>8721582639</t>
+  </si>
+  <si>
+    <t>Ankita</t>
+  </si>
+  <si>
+    <t>JobinDoshi53825@example.net</t>
+  </si>
+  <si>
+    <t>1992-08-30</t>
+  </si>
+  <si>
+    <t>800845839457819</t>
+  </si>
+  <si>
+    <t>5199c09c7a3e7077</t>
+  </si>
+  <si>
+    <t>801925413601500</t>
+  </si>
+  <si>
+    <t>IDEP746153385375RO5Z</t>
   </si>
 </sst>
 </file>
@@ -1390,7 +1606,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>276</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1510,7 +1726,7 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>283</v>
+        <v>355</v>
       </c>
       <c r="C2" t="s">
         <v>240</v>
@@ -1959,16 +2175,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="C2" t="s">
-        <v>282</v>
+        <v>354</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>280</v>
+        <v>352</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2187,13 +2403,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>277</v>
+        <v>349</v>
       </c>
       <c r="E2" t="s">
-        <v>278</v>
+        <v>350</v>
       </c>
       <c r="F2" t="s">
-        <v>279</v>
+        <v>351</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -2740,10 +2956,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>276</v>
+        <v>348</v>
       </c>
       <c r="E2" t="s">
-        <v>278</v>
+        <v>350</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -2755,7 +2971,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>280</v>
+        <v>352</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -2764,10 +2980,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>283</v>
+        <v>355</v>
       </c>
       <c r="M2" t="n">
-        <v>4219745.0</v>
+        <v>4221621.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -2923,7 +3139,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>276</v>
+        <v>348</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -2940,7 +3156,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>276</v>
+        <v>348</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -2957,7 +3173,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>276</v>
+        <v>348</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -2974,7 +3190,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>276</v>
+        <v>348</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -2991,7 +3207,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>276</v>
+        <v>348</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3077,7 +3293,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>280</v>
+        <v>352</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -3321,7 +3537,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>280</v>
+        <v>352</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -3536,7 +3752,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>277</v>
+        <v>349</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>
@@ -3619,7 +3835,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>283</v>
+        <v>355</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>110</v>
@@ -3917,7 +4133,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>283</v>
+        <v>355</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -3937,7 +4153,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>283</v>
+        <v>355</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -3957,7 +4173,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>283</v>
+        <v>355</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -3977,7 +4193,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>283</v>
+        <v>355</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -3997,7 +4213,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>283</v>
+        <v>355</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -4017,7 +4233,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>283</v>
+        <v>355</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -4037,7 +4253,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>283</v>
+        <v>355</v>
       </c>
       <c r="C8">
         <v>725</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_LTBC1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_LTBC1_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="503">
   <si>
     <t>TestCases</t>
   </si>
@@ -1111,6 +1111,447 @@
   </si>
   <si>
     <t>IDEP746153385375RO5Z</t>
+  </si>
+  <si>
+    <t>6489186831</t>
+  </si>
+  <si>
+    <t>Aastha</t>
+  </si>
+  <si>
+    <t>QaboolKumer35132@example.net</t>
+  </si>
+  <si>
+    <t>1982-08-14</t>
+  </si>
+  <si>
+    <t>729294000265099</t>
+  </si>
+  <si>
+    <t>2fc660a44ec4807a</t>
+  </si>
+  <si>
+    <t>086348451839732</t>
+  </si>
+  <si>
+    <t>8193786902</t>
+  </si>
+  <si>
+    <t>Aarti</t>
+  </si>
+  <si>
+    <t>GhanshyamJani32637@example.net</t>
+  </si>
+  <si>
+    <t>1989-01-04</t>
+  </si>
+  <si>
+    <t>635608264512297</t>
+  </si>
+  <si>
+    <t>3c1220e86d0a2cb6</t>
+  </si>
+  <si>
+    <t>991408250193469</t>
+  </si>
+  <si>
+    <t>9892539871</t>
+  </si>
+  <si>
+    <t>JatinGaba56780@example.net</t>
+  </si>
+  <si>
+    <t>1985-03-02</t>
+  </si>
+  <si>
+    <t>324082568915836</t>
+  </si>
+  <si>
+    <t>4697f17113dbca3a</t>
+  </si>
+  <si>
+    <t>746997270936582</t>
+  </si>
+  <si>
+    <t>IDEP476133188741BRDK</t>
+  </si>
+  <si>
+    <t>6732769753</t>
+  </si>
+  <si>
+    <t>Jayshree</t>
+  </si>
+  <si>
+    <t>OmarKhatri40765@example.net</t>
+  </si>
+  <si>
+    <t>1995-08-28</t>
+  </si>
+  <si>
+    <t>709078578849382</t>
+  </si>
+  <si>
+    <t>f2c82b2bd091385a</t>
+  </si>
+  <si>
+    <t>571845044748124</t>
+  </si>
+  <si>
+    <t>IDEP764138838279WFH9</t>
+  </si>
+  <si>
+    <t>9919023029</t>
+  </si>
+  <si>
+    <t>Aarushi</t>
+  </si>
+  <si>
+    <t>QabeelMajumdar30043@example.net</t>
+  </si>
+  <si>
+    <t>1976-10-10</t>
+  </si>
+  <si>
+    <t>031197917450121</t>
+  </si>
+  <si>
+    <t>2d048e5a1c2f2d42</t>
+  </si>
+  <si>
+    <t>304519150561969</t>
+  </si>
+  <si>
+    <t>IDEP716443819973NZHF</t>
+  </si>
+  <si>
+    <t>6343389478</t>
+  </si>
+  <si>
+    <t>Kirti</t>
+  </si>
+  <si>
+    <t>NirmalNazareth81085@example.net</t>
+  </si>
+  <si>
+    <t>1992-09-27</t>
+  </si>
+  <si>
+    <t>114620393659550</t>
+  </si>
+  <si>
+    <t>5597d5bff15ef0e5</t>
+  </si>
+  <si>
+    <t>617891781458242</t>
+  </si>
+  <si>
+    <t>IDEP674143166226GF4M</t>
+  </si>
+  <si>
+    <t>6333142573</t>
+  </si>
+  <si>
+    <t>Usha</t>
+  </si>
+  <si>
+    <t>ChiragSanghvi13677@example.net</t>
+  </si>
+  <si>
+    <t>1993-09-30</t>
+  </si>
+  <si>
+    <t>175096363696698</t>
+  </si>
+  <si>
+    <t>d7cf1a430bf55cb3</t>
+  </si>
+  <si>
+    <t>609042314985307</t>
+  </si>
+  <si>
+    <t>IDEP1746433246733DZH</t>
+  </si>
+  <si>
+    <t>8579741221</t>
+  </si>
+  <si>
+    <t>Riddhi</t>
+  </si>
+  <si>
+    <t>NazirTripathi45742@example.net</t>
+  </si>
+  <si>
+    <t>1972-08-08</t>
+  </si>
+  <si>
+    <t>397806426325487</t>
+  </si>
+  <si>
+    <t>bd1f09a0573661b9</t>
+  </si>
+  <si>
+    <t>618075742876028</t>
+  </si>
+  <si>
+    <t>IDEP176443483947PY2A</t>
+  </si>
+  <si>
+    <t>9949934707</t>
+  </si>
+  <si>
+    <t>WafiqMane96030@example.net</t>
+  </si>
+  <si>
+    <t>1973-03-28</t>
+  </si>
+  <si>
+    <t>503250090855613</t>
+  </si>
+  <si>
+    <t>e8a35f148ee0211e</t>
+  </si>
+  <si>
+    <t>306474953479993</t>
+  </si>
+  <si>
+    <t>IDEP417643538726A1J3</t>
+  </si>
+  <si>
+    <t>6601840397</t>
+  </si>
+  <si>
+    <t>Yasmin</t>
+  </si>
+  <si>
+    <t>RajDewan39873@example.net</t>
+  </si>
+  <si>
+    <t>1990-08-07</t>
+  </si>
+  <si>
+    <t>352790673858791</t>
+  </si>
+  <si>
+    <t>99b0df5d1a290b89</t>
+  </si>
+  <si>
+    <t>348767073772928</t>
+  </si>
+  <si>
+    <t>IDEP761443893548VTRB</t>
+  </si>
+  <si>
+    <t>7163475903</t>
+  </si>
+  <si>
+    <t>Leelawati</t>
+  </si>
+  <si>
+    <t>HetanDada47241@example.net</t>
+  </si>
+  <si>
+    <t>1989-10-24</t>
+  </si>
+  <si>
+    <t>794768910054859</t>
+  </si>
+  <si>
+    <t>b5b529493eaab51f</t>
+  </si>
+  <si>
+    <t>925334892611158</t>
+  </si>
+  <si>
+    <t>IDEP7614441248617NCK</t>
+  </si>
+  <si>
+    <t>9449102828</t>
+  </si>
+  <si>
+    <t>Himani</t>
+  </si>
+  <si>
+    <t>AnilBath25756@example.net</t>
+  </si>
+  <si>
+    <t>1983-01-12</t>
+  </si>
+  <si>
+    <t>525379492935303</t>
+  </si>
+  <si>
+    <t>ee36660fa5a9f2e7</t>
+  </si>
+  <si>
+    <t>718547625304681</t>
+  </si>
+  <si>
+    <t>IDEP617444524128T4SH</t>
+  </si>
+  <si>
+    <t>8610192018</t>
+  </si>
+  <si>
+    <t>Vineeta</t>
+  </si>
+  <si>
+    <t>JaswantDutta24940@example.net</t>
+  </si>
+  <si>
+    <t>1991-04-24</t>
+  </si>
+  <si>
+    <t>927080538738727</t>
+  </si>
+  <si>
+    <t>e8d9f56168ed90c6</t>
+  </si>
+  <si>
+    <t>910945329009562</t>
+  </si>
+  <si>
+    <t>IDEP74614464878612D6</t>
+  </si>
+  <si>
+    <t>9609233645</t>
+  </si>
+  <si>
+    <t>Nishtha</t>
+  </si>
+  <si>
+    <t>BrockChander80488@example.net</t>
+  </si>
+  <si>
+    <t>1982-11-27</t>
+  </si>
+  <si>
+    <t>264722041627274</t>
+  </si>
+  <si>
+    <t>33b4e0d908daffa6</t>
+  </si>
+  <si>
+    <t>895950457559825</t>
+  </si>
+  <si>
+    <t>IDEP1674448795133IZG</t>
+  </si>
+  <si>
+    <t>9472600875</t>
+  </si>
+  <si>
+    <t>Laveena</t>
+  </si>
+  <si>
+    <t>ZeeshanBhatia79520@example.net</t>
+  </si>
+  <si>
+    <t>1980-11-04</t>
+  </si>
+  <si>
+    <t>640090540609374</t>
+  </si>
+  <si>
+    <t>c0c84a59bc077ed8</t>
+  </si>
+  <si>
+    <t>038773442989842</t>
+  </si>
+  <si>
+    <t>IDEP467148282129I9DJ</t>
+  </si>
+  <si>
+    <t>8139471286</t>
+  </si>
+  <si>
+    <t>Juhi</t>
+  </si>
+  <si>
+    <t>PravinSibal49682@example.net</t>
+  </si>
+  <si>
+    <t>1990-10-14</t>
+  </si>
+  <si>
+    <t>237959994827709</t>
+  </si>
+  <si>
+    <t>13a63cf10c231e10</t>
+  </si>
+  <si>
+    <t>002042631474350</t>
+  </si>
+  <si>
+    <t>IDEP746158711993YVS7</t>
+  </si>
+  <si>
+    <t>7185240626</t>
+  </si>
+  <si>
+    <t>Sunita</t>
+  </si>
+  <si>
+    <t>SomnathMaheshwari77238@example.net</t>
+  </si>
+  <si>
+    <t>1983-08-02</t>
+  </si>
+  <si>
+    <t>527404596447274</t>
+  </si>
+  <si>
+    <t>f462d87ff1abf041</t>
+  </si>
+  <si>
+    <t>866131013410796</t>
+  </si>
+  <si>
+    <t>IDEP714618767758CWY7</t>
+  </si>
+  <si>
+    <t>7315625092</t>
+  </si>
+  <si>
+    <t>KalpitDyal99096@example.net</t>
+  </si>
+  <si>
+    <t>1986-08-18</t>
+  </si>
+  <si>
+    <t>635899453943886</t>
+  </si>
+  <si>
+    <t>b889ff810ca75e6d</t>
+  </si>
+  <si>
+    <t>360058902790932</t>
+  </si>
+  <si>
+    <t>IDEP714622988446ZE7O</t>
+  </si>
+  <si>
+    <t>6902626995</t>
+  </si>
+  <si>
+    <t>Hina</t>
+  </si>
+  <si>
+    <t>EliasRandhawa60608@example.net</t>
+  </si>
+  <si>
+    <t>1989-02-27</t>
+  </si>
+  <si>
+    <t>951084796766189</t>
+  </si>
+  <si>
+    <t>54ae8b9ff25a41da</t>
+  </si>
+  <si>
+    <t>361352843380823</t>
+  </si>
+  <si>
+    <t>IDEP617564316616KORD</t>
   </si>
 </sst>
 </file>
@@ -1606,7 +2047,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>348</v>
+        <v>495</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1726,7 +2167,7 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>355</v>
+        <v>502</v>
       </c>
       <c r="C2" t="s">
         <v>240</v>
@@ -2175,16 +2616,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>353</v>
+        <v>500</v>
       </c>
       <c r="C2" t="s">
-        <v>354</v>
+        <v>501</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>352</v>
+        <v>499</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2403,13 +2844,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>349</v>
+        <v>496</v>
       </c>
       <c r="E2" t="s">
-        <v>350</v>
+        <v>497</v>
       </c>
       <c r="F2" t="s">
-        <v>351</v>
+        <v>498</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -2956,10 +3397,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>348</v>
+        <v>495</v>
       </c>
       <c r="E2" t="s">
-        <v>350</v>
+        <v>497</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -2971,7 +3412,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>352</v>
+        <v>499</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -2980,10 +3421,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>355</v>
+        <v>502</v>
       </c>
       <c r="M2" t="n">
-        <v>4221621.0</v>
+        <v>4224447.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3139,7 +3580,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>348</v>
+        <v>495</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3156,7 +3597,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>348</v>
+        <v>495</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3173,7 +3614,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>348</v>
+        <v>495</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3190,7 +3631,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>348</v>
+        <v>495</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3207,7 +3648,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>348</v>
+        <v>495</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3293,7 +3734,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>352</v>
+        <v>499</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -3537,7 +3978,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>352</v>
+        <v>499</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -3752,7 +4193,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>349</v>
+        <v>496</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>
@@ -3835,7 +4276,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>355</v>
+        <v>502</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>110</v>
@@ -4133,7 +4574,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>355</v>
+        <v>502</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4153,7 +4594,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>355</v>
+        <v>502</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -4173,7 +4614,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>355</v>
+        <v>502</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -4193,7 +4634,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>355</v>
+        <v>502</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -4213,7 +4654,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>355</v>
+        <v>502</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -4233,7 +4674,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>355</v>
+        <v>502</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -4253,7 +4694,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>355</v>
+        <v>502</v>
       </c>
       <c r="C8">
         <v>725</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_LTBC1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_LTBC1_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="518">
   <si>
     <t>TestCases</t>
   </si>
@@ -1552,6 +1552,51 @@
   </si>
   <si>
     <t>IDEP617564316616KORD</t>
+  </si>
+  <si>
+    <t>6449622526</t>
+  </si>
+  <si>
+    <t>Esha</t>
+  </si>
+  <si>
+    <t>GovindBehl45829@example.net</t>
+  </si>
+  <si>
+    <t>1984-03-07</t>
+  </si>
+  <si>
+    <t>442074300290641</t>
+  </si>
+  <si>
+    <t>fc785956e90ad1c7</t>
+  </si>
+  <si>
+    <t>165069968002887</t>
+  </si>
+  <si>
+    <t>6044334327</t>
+  </si>
+  <si>
+    <t>Gowri</t>
+  </si>
+  <si>
+    <t>KalpitRanganathan73588@example.net</t>
+  </si>
+  <si>
+    <t>1975-09-23</t>
+  </si>
+  <si>
+    <t>260901436557312</t>
+  </si>
+  <si>
+    <t>1b8229df66d8758c</t>
+  </si>
+  <si>
+    <t>946887192972187</t>
+  </si>
+  <si>
+    <t>IDEP715677983897UV9M</t>
   </si>
 </sst>
 </file>
@@ -2047,7 +2092,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2167,7 +2212,7 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="C2" t="s">
         <v>240</v>
@@ -2616,16 +2661,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="C2" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2844,13 +2889,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="E2" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="F2" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3397,10 +3442,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="E2" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3412,7 +3457,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3421,10 +3466,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="M2" t="n">
-        <v>4224447.0</v>
+        <v>4224664.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3580,7 +3625,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3597,7 +3642,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3614,7 +3659,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3631,7 +3676,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3648,7 +3693,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3734,7 +3779,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -3978,7 +4023,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -4193,7 +4238,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>
@@ -4276,7 +4321,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>110</v>
@@ -4574,7 +4619,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4594,7 +4639,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -4614,7 +4659,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -4634,7 +4679,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -4654,7 +4699,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -4674,7 +4719,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -4694,7 +4739,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="C8">
         <v>725</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_LTBC1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_LTBC1_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="526">
   <si>
     <t>TestCases</t>
   </si>
@@ -1597,6 +1597,30 @@
   </si>
   <si>
     <t>IDEP715677983897UV9M</t>
+  </si>
+  <si>
+    <t>9298613396</t>
+  </si>
+  <si>
+    <t>Mona</t>
+  </si>
+  <si>
+    <t>SaiTailor95626@example.net</t>
+  </si>
+  <si>
+    <t>1988-08-10</t>
+  </si>
+  <si>
+    <t>588172880738429</t>
+  </si>
+  <si>
+    <t>6da194a0fd226577</t>
+  </si>
+  <si>
+    <t>709096971188182</t>
+  </si>
+  <si>
+    <t>IDEP765198115377YWDM</t>
   </si>
 </sst>
 </file>
@@ -2092,7 +2116,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2212,7 +2236,7 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="C2" t="s">
         <v>240</v>
@@ -2661,16 +2685,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="C2" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2889,13 +2913,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="E2" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="F2" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3442,10 +3466,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="E2" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3457,7 +3481,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3466,10 +3490,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="M2" t="n">
-        <v>4224664.0</v>
+        <v>4224872.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3625,7 +3649,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3642,7 +3666,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3659,7 +3683,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3676,7 +3700,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3693,7 +3717,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3779,7 +3803,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -4023,7 +4047,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -4238,7 +4262,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>
@@ -4321,7 +4345,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>110</v>
@@ -4619,7 +4643,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4639,7 +4663,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -4659,7 +4683,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -4679,7 +4703,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -4699,7 +4723,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -4719,7 +4743,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -4739,7 +4763,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="C8">
         <v>725</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_LTBC1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_LTBC1_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="555">
   <si>
     <t>TestCases</t>
   </si>
@@ -1621,6 +1621,93 @@
   </si>
   <si>
     <t>IDEP765198115377YWDM</t>
+  </si>
+  <si>
+    <t>8629277589</t>
+  </si>
+  <si>
+    <t>Kunti</t>
+  </si>
+  <si>
+    <t>PrabhatMadan95805@example.net</t>
+  </si>
+  <si>
+    <t>1978-03-06</t>
+  </si>
+  <si>
+    <t>496619324624061</t>
+  </si>
+  <si>
+    <t>07d1c92501e86b92</t>
+  </si>
+  <si>
+    <t>887089715627015</t>
+  </si>
+  <si>
+    <t>6975265749</t>
+  </si>
+  <si>
+    <t>Komal</t>
+  </si>
+  <si>
+    <t>EliasSinha65557@example.net</t>
+  </si>
+  <si>
+    <t>1985-05-17</t>
+  </si>
+  <si>
+    <t>902718244928335</t>
+  </si>
+  <si>
+    <t>ef0848ad60606639</t>
+  </si>
+  <si>
+    <t>858684145428854</t>
+  </si>
+  <si>
+    <t>7720137096</t>
+  </si>
+  <si>
+    <t>RaghavanBabu85819@example.net</t>
+  </si>
+  <si>
+    <t>1984-06-30</t>
+  </si>
+  <si>
+    <t>103715492268080</t>
+  </si>
+  <si>
+    <t>59cfa1f1c1fcc941</t>
+  </si>
+  <si>
+    <t>720564328978535</t>
+  </si>
+  <si>
+    <t>IDEP176542989961GUAX</t>
+  </si>
+  <si>
+    <t>7570909906</t>
+  </si>
+  <si>
+    <t>Savita</t>
+  </si>
+  <si>
+    <t>PrasoonKant60507@example.net</t>
+  </si>
+  <si>
+    <t>1986-04-20</t>
+  </si>
+  <si>
+    <t>227354643046889</t>
+  </si>
+  <si>
+    <t>5574ce4dc9af1f1d</t>
+  </si>
+  <si>
+    <t>610063108183880</t>
+  </si>
+  <si>
+    <t>IDEP1675432273797O1Z</t>
   </si>
 </sst>
 </file>
@@ -2116,7 +2203,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>518</v>
+        <v>547</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2236,7 +2323,7 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>525</v>
+        <v>554</v>
       </c>
       <c r="C2" t="s">
         <v>240</v>
@@ -2685,16 +2772,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>523</v>
+        <v>552</v>
       </c>
       <c r="C2" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>522</v>
+        <v>551</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2913,13 +3000,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>519</v>
+        <v>548</v>
       </c>
       <c r="E2" t="s">
-        <v>520</v>
+        <v>549</v>
       </c>
       <c r="F2" t="s">
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3466,10 +3553,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>518</v>
+        <v>547</v>
       </c>
       <c r="E2" t="s">
-        <v>520</v>
+        <v>549</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3481,7 +3568,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>522</v>
+        <v>551</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3490,10 +3577,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>525</v>
+        <v>554</v>
       </c>
       <c r="M2" t="n">
-        <v>4224872.0</v>
+        <v>4225054.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3649,7 +3736,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>518</v>
+        <v>547</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3666,7 +3753,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>518</v>
+        <v>547</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3683,7 +3770,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>518</v>
+        <v>547</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3700,7 +3787,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>518</v>
+        <v>547</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3717,7 +3804,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>518</v>
+        <v>547</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3803,7 +3890,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>522</v>
+        <v>551</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -4047,7 +4134,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>522</v>
+        <v>551</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -4262,7 +4349,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>519</v>
+        <v>548</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>
@@ -4345,7 +4432,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>525</v>
+        <v>554</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>110</v>
@@ -4643,7 +4730,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>525</v>
+        <v>554</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4663,7 +4750,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>525</v>
+        <v>554</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -4683,7 +4770,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>525</v>
+        <v>554</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -4703,7 +4790,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>525</v>
+        <v>554</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -4723,7 +4810,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>525</v>
+        <v>554</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -4743,7 +4830,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>525</v>
+        <v>554</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -4763,7 +4850,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>525</v>
+        <v>554</v>
       </c>
       <c r="C8">
         <v>725</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_LTBC1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_LTBC1_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2233" uniqueCount="579">
   <si>
     <t>TestCases</t>
   </si>
@@ -1708,6 +1708,78 @@
   </si>
   <si>
     <t>IDEP1675432273797O1Z</t>
+  </si>
+  <si>
+    <t>9494933840</t>
+  </si>
+  <si>
+    <t>Meghana</t>
+  </si>
+  <si>
+    <t>AjinkyaChauhan57724@example.net</t>
+  </si>
+  <si>
+    <t>1990-04-27</t>
+  </si>
+  <si>
+    <t>205883663328278</t>
+  </si>
+  <si>
+    <t>61a046779a41c228</t>
+  </si>
+  <si>
+    <t>898114453069977</t>
+  </si>
+  <si>
+    <t>IDEP651746433665LRMZ</t>
+  </si>
+  <si>
+    <t>8769455151</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>MowgliJacob43546@example.net</t>
+  </si>
+  <si>
+    <t>1984-11-06</t>
+  </si>
+  <si>
+    <t>934122788693979</t>
+  </si>
+  <si>
+    <t>c722a52c4fed2432</t>
+  </si>
+  <si>
+    <t>911832366986333</t>
+  </si>
+  <si>
+    <t>IDEP751647492988F79J</t>
+  </si>
+  <si>
+    <t>8121161940</t>
+  </si>
+  <si>
+    <t>Charu</t>
+  </si>
+  <si>
+    <t>HariDin87084@example.net</t>
+  </si>
+  <si>
+    <t>1989-11-28</t>
+  </si>
+  <si>
+    <t>463377967455579</t>
+  </si>
+  <si>
+    <t>0c0d1d94a44cc52c</t>
+  </si>
+  <si>
+    <t>375596980291243</t>
+  </si>
+  <si>
+    <t>IDEP167548333788O8Q4</t>
   </si>
 </sst>
 </file>
@@ -2203,7 +2275,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>547</v>
+        <v>571</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2323,7 +2395,7 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>554</v>
+        <v>578</v>
       </c>
       <c r="C2" t="s">
         <v>240</v>
@@ -2772,16 +2844,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>552</v>
+        <v>576</v>
       </c>
       <c r="C2" t="s">
-        <v>553</v>
+        <v>577</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>551</v>
+        <v>575</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3000,13 +3072,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>548</v>
+        <v>572</v>
       </c>
       <c r="E2" t="s">
-        <v>549</v>
+        <v>573</v>
       </c>
       <c r="F2" t="s">
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3553,10 +3625,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>547</v>
+        <v>571</v>
       </c>
       <c r="E2" t="s">
-        <v>549</v>
+        <v>573</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3568,7 +3640,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>551</v>
+        <v>575</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3577,10 +3649,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>554</v>
+        <v>578</v>
       </c>
       <c r="M2" t="n">
-        <v>4225054.0</v>
+        <v>4225176.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3736,7 +3808,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>547</v>
+        <v>571</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3753,7 +3825,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>547</v>
+        <v>571</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3770,7 +3842,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>547</v>
+        <v>571</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3787,7 +3859,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>547</v>
+        <v>571</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3804,7 +3876,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>547</v>
+        <v>571</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3890,7 +3962,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>551</v>
+        <v>575</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -4134,7 +4206,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>551</v>
+        <v>575</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -4349,7 +4421,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>548</v>
+        <v>572</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>
@@ -4432,7 +4504,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>554</v>
+        <v>578</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>110</v>
@@ -4730,7 +4802,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>554</v>
+        <v>578</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4750,7 +4822,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>554</v>
+        <v>578</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -4770,7 +4842,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>554</v>
+        <v>578</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -4790,7 +4862,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>554</v>
+        <v>578</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -4810,7 +4882,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>554</v>
+        <v>578</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -4830,7 +4902,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>554</v>
+        <v>578</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -4850,7 +4922,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>554</v>
+        <v>578</v>
       </c>
       <c r="C8">
         <v>725</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_LTBC1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_LTBC1_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2233" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2477" uniqueCount="627">
   <si>
     <t>TestCases</t>
   </si>
@@ -1780,6 +1780,150 @@
   </si>
   <si>
     <t>IDEP167548333788O8Q4</t>
+  </si>
+  <si>
+    <t>6823750588</t>
+  </si>
+  <si>
+    <t>Kalpana</t>
+  </si>
+  <si>
+    <t>MukundBalasubramanian87625@example.net</t>
+  </si>
+  <si>
+    <t>1981-08-04</t>
+  </si>
+  <si>
+    <t>596040936380878</t>
+  </si>
+  <si>
+    <t>8b7d30d9ea321b69</t>
+  </si>
+  <si>
+    <t>552576562252164</t>
+  </si>
+  <si>
+    <t>IDEP765168362288AFBN</t>
+  </si>
+  <si>
+    <t>7037985154</t>
+  </si>
+  <si>
+    <t>Aditi</t>
+  </si>
+  <si>
+    <t>HrishikeshRajagopal51030@example.net</t>
+  </si>
+  <si>
+    <t>1975-04-20</t>
+  </si>
+  <si>
+    <t>988371643367213</t>
+  </si>
+  <si>
+    <t>4bd607a1b134a9cb</t>
+  </si>
+  <si>
+    <t>179625777277772</t>
+  </si>
+  <si>
+    <t>IDEP165761887155TGOC</t>
+  </si>
+  <si>
+    <t>9643375266</t>
+  </si>
+  <si>
+    <t>Kanika</t>
+  </si>
+  <si>
+    <t>JavedTank40207@example.net</t>
+  </si>
+  <si>
+    <t>1992-01-04</t>
+  </si>
+  <si>
+    <t>556078886452550</t>
+  </si>
+  <si>
+    <t>95f1dc6b1bf23474</t>
+  </si>
+  <si>
+    <t>471495439352610</t>
+  </si>
+  <si>
+    <t>IDEP176562667189PQNC</t>
+  </si>
+  <si>
+    <t>8446311010</t>
+  </si>
+  <si>
+    <t>Ruchi</t>
+  </si>
+  <si>
+    <t>RajendraAtwal66544@example.net</t>
+  </si>
+  <si>
+    <t>1971-02-23</t>
+  </si>
+  <si>
+    <t>264567738814879</t>
+  </si>
+  <si>
+    <t>6d3f7a57b51ed51e</t>
+  </si>
+  <si>
+    <t>386565148751932</t>
+  </si>
+  <si>
+    <t>IDEP715662748963EHX8</t>
+  </si>
+  <si>
+    <t>9727480076</t>
+  </si>
+  <si>
+    <t>Nagma</t>
+  </si>
+  <si>
+    <t>BharatBains39813@example.net</t>
+  </si>
+  <si>
+    <t>1972-01-18</t>
+  </si>
+  <si>
+    <t>459050395936645</t>
+  </si>
+  <si>
+    <t>da20b5b26db3cbb7</t>
+  </si>
+  <si>
+    <t>013547242375249</t>
+  </si>
+  <si>
+    <t>IDEP571663889294IM7X</t>
+  </si>
+  <si>
+    <t>8825329441</t>
+  </si>
+  <si>
+    <t>Padama</t>
+  </si>
+  <si>
+    <t>NawabKaur36510@example.net</t>
+  </si>
+  <si>
+    <t>1985-12-09</t>
+  </si>
+  <si>
+    <t>033761856307812</t>
+  </si>
+  <si>
+    <t>228fc734fc5bb8b1</t>
+  </si>
+  <si>
+    <t>908530291824240</t>
+  </si>
+  <si>
+    <t>IDEP651764264129AVEL</t>
   </si>
 </sst>
 </file>
@@ -2275,7 +2419,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>571</v>
+        <v>619</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2395,7 +2539,7 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>578</v>
+        <v>626</v>
       </c>
       <c r="C2" t="s">
         <v>240</v>
@@ -2844,16 +2988,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>576</v>
+        <v>624</v>
       </c>
       <c r="C2" t="s">
-        <v>577</v>
+        <v>625</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>575</v>
+        <v>623</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3072,13 +3216,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>572</v>
+        <v>620</v>
       </c>
       <c r="E2" t="s">
-        <v>573</v>
+        <v>621</v>
       </c>
       <c r="F2" t="s">
-        <v>574</v>
+        <v>622</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3625,10 +3769,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>571</v>
+        <v>619</v>
       </c>
       <c r="E2" t="s">
-        <v>573</v>
+        <v>621</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3640,7 +3784,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>575</v>
+        <v>623</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3649,10 +3793,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>578</v>
+        <v>626</v>
       </c>
       <c r="M2" t="n">
-        <v>4225176.0</v>
+        <v>4225415.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3808,7 +3952,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>571</v>
+        <v>619</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3825,7 +3969,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>571</v>
+        <v>619</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3842,7 +3986,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>571</v>
+        <v>619</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3859,7 +4003,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>571</v>
+        <v>619</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3876,7 +4020,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>571</v>
+        <v>619</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3962,7 +4106,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>575</v>
+        <v>623</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -4206,7 +4350,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>575</v>
+        <v>623</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -4421,7 +4565,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>572</v>
+        <v>620</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>
@@ -4504,7 +4648,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>578</v>
+        <v>626</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>110</v>
@@ -4802,7 +4946,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>578</v>
+        <v>626</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4822,7 +4966,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>578</v>
+        <v>626</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -4842,7 +4986,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>578</v>
+        <v>626</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -4862,7 +5006,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>578</v>
+        <v>626</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -4882,7 +5026,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>578</v>
+        <v>626</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -4902,7 +5046,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>578</v>
+        <v>626</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -4922,7 +5066,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>578</v>
+        <v>626</v>
       </c>
       <c r="C8">
         <v>725</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_LTBC1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_LTBC1_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2477" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3065" uniqueCount="750">
   <si>
     <t>TestCases</t>
   </si>
@@ -1924,6 +1924,375 @@
   </si>
   <si>
     <t>IDEP651764264129AVEL</t>
+  </si>
+  <si>
+    <t>6408741730</t>
+  </si>
+  <si>
+    <t>Chitra</t>
+  </si>
+  <si>
+    <t>AmirNadkarni88424@example.net</t>
+  </si>
+  <si>
+    <t>1991-11-04</t>
+  </si>
+  <si>
+    <t>456938624577789</t>
+  </si>
+  <si>
+    <t>af017b53f4434743</t>
+  </si>
+  <si>
+    <t>075510350792998</t>
+  </si>
+  <si>
+    <t>6809569046</t>
+  </si>
+  <si>
+    <t>Dipti</t>
+  </si>
+  <si>
+    <t>KoushtubhKohli88131@example.net</t>
+  </si>
+  <si>
+    <t>1993-10-07</t>
+  </si>
+  <si>
+    <t>436833634327884</t>
+  </si>
+  <si>
+    <t>291013b177351ccc</t>
+  </si>
+  <si>
+    <t>246645852621446</t>
+  </si>
+  <si>
+    <t>7883063151</t>
+  </si>
+  <si>
+    <t>DhanushPalla51935@example.net</t>
+  </si>
+  <si>
+    <t>1987-10-19</t>
+  </si>
+  <si>
+    <t>357659069820001</t>
+  </si>
+  <si>
+    <t>f8196c3211761475</t>
+  </si>
+  <si>
+    <t>019420186984232</t>
+  </si>
+  <si>
+    <t>7395317642</t>
+  </si>
+  <si>
+    <t>Anjana</t>
+  </si>
+  <si>
+    <t>DevendraHalder22128@example.net</t>
+  </si>
+  <si>
+    <t>1974-02-05</t>
+  </si>
+  <si>
+    <t>630107309931237</t>
+  </si>
+  <si>
+    <t>fc18076c8005d884</t>
+  </si>
+  <si>
+    <t>506226985024280</t>
+  </si>
+  <si>
+    <t>8500725337</t>
+  </si>
+  <si>
+    <t>ManojNigam80248@example.net</t>
+  </si>
+  <si>
+    <t>1992-06-21</t>
+  </si>
+  <si>
+    <t>344011034777625</t>
+  </si>
+  <si>
+    <t>191f3f9c8408f7e8</t>
+  </si>
+  <si>
+    <t>462907458174098</t>
+  </si>
+  <si>
+    <t>6963826349</t>
+  </si>
+  <si>
+    <t>Astha</t>
+  </si>
+  <si>
+    <t>JobinDivan63644@example.net</t>
+  </si>
+  <si>
+    <t>1984-05-10</t>
+  </si>
+  <si>
+    <t>946063916869170</t>
+  </si>
+  <si>
+    <t>0689ab323a29b77c</t>
+  </si>
+  <si>
+    <t>488646518904561</t>
+  </si>
+  <si>
+    <t>9727453889</t>
+  </si>
+  <si>
+    <t>Sneha</t>
+  </si>
+  <si>
+    <t>AatifKibe66538@example.net</t>
+  </si>
+  <si>
+    <t>1986-10-15</t>
+  </si>
+  <si>
+    <t>394715001832002</t>
+  </si>
+  <si>
+    <t>9a8e0a01b2b82b23</t>
+  </si>
+  <si>
+    <t>937068236495417</t>
+  </si>
+  <si>
+    <t>IDEP715658583436T5GK</t>
+  </si>
+  <si>
+    <t>9402710847</t>
+  </si>
+  <si>
+    <t>Heena</t>
+  </si>
+  <si>
+    <t>KushalKhare41768@example.net</t>
+  </si>
+  <si>
+    <t>1995-11-11</t>
+  </si>
+  <si>
+    <t>781153203955341</t>
+  </si>
+  <si>
+    <t>4a291b23166377cb</t>
+  </si>
+  <si>
+    <t>594241291167304</t>
+  </si>
+  <si>
+    <t>IDEP517658598483HYO1</t>
+  </si>
+  <si>
+    <t>8003831623</t>
+  </si>
+  <si>
+    <t>Preshita</t>
+  </si>
+  <si>
+    <t>IshatThakkar41717@example.net</t>
+  </si>
+  <si>
+    <t>1981-06-29</t>
+  </si>
+  <si>
+    <t>802301792299382</t>
+  </si>
+  <si>
+    <t>4d3f5922988f4495</t>
+  </si>
+  <si>
+    <t>694455549898515</t>
+  </si>
+  <si>
+    <t>IDEP56715188966428Q6</t>
+  </si>
+  <si>
+    <t>7576182454</t>
+  </si>
+  <si>
+    <t>VarunMurthy47905@example.net</t>
+  </si>
+  <si>
+    <t>1978-07-01</t>
+  </si>
+  <si>
+    <t>603081030854740</t>
+  </si>
+  <si>
+    <t>488397d48b72318a</t>
+  </si>
+  <si>
+    <t>136144019185985</t>
+  </si>
+  <si>
+    <t>IDEP157651738888QRVN</t>
+  </si>
+  <si>
+    <t>9988701524</t>
+  </si>
+  <si>
+    <t>Heer</t>
+  </si>
+  <si>
+    <t>AbhinavMahabir57199@example.net</t>
+  </si>
+  <si>
+    <t>1990-07-20</t>
+  </si>
+  <si>
+    <t>540339145265921</t>
+  </si>
+  <si>
+    <t>011bb612b59501f1</t>
+  </si>
+  <si>
+    <t>289473126624304</t>
+  </si>
+  <si>
+    <t>IDEP6751165873877RHX</t>
+  </si>
+  <si>
+    <t>7916494083</t>
+  </si>
+  <si>
+    <t>Niyati</t>
+  </si>
+  <si>
+    <t>MohanSubramanian18724@example.net</t>
+  </si>
+  <si>
+    <t>1993-04-06</t>
+  </si>
+  <si>
+    <t>682271645894561</t>
+  </si>
+  <si>
+    <t>d18ccefed6711555</t>
+  </si>
+  <si>
+    <t>151104171331496</t>
+  </si>
+  <si>
+    <t>IDEP517618847299QSBR</t>
+  </si>
+  <si>
+    <t>8532370562</t>
+  </si>
+  <si>
+    <t>MustafaGala25276@example.net</t>
+  </si>
+  <si>
+    <t>1970-05-15</t>
+  </si>
+  <si>
+    <t>451518795773642</t>
+  </si>
+  <si>
+    <t>54843a098f44d3b9</t>
+  </si>
+  <si>
+    <t>753643439086345</t>
+  </si>
+  <si>
+    <t>IDEP156719886214RCY6</t>
+  </si>
+  <si>
+    <t>9111346193</t>
+  </si>
+  <si>
+    <t>UmarSami14799@example.net</t>
+  </si>
+  <si>
+    <t>1988-07-12</t>
+  </si>
+  <si>
+    <t>905810055075400</t>
+  </si>
+  <si>
+    <t>5df27d3d5cf848a0</t>
+  </si>
+  <si>
+    <t>005919911109797</t>
+  </si>
+  <si>
+    <t>IDEP761523931688QGC7</t>
+  </si>
+  <si>
+    <t>9920001242</t>
+  </si>
+  <si>
+    <t>Runjhun</t>
+  </si>
+  <si>
+    <t>KarimBobal18975@example.net</t>
+  </si>
+  <si>
+    <t>1985-08-08</t>
+  </si>
+  <si>
+    <t>941366077298286</t>
+  </si>
+  <si>
+    <t>8f673fd58855a552</t>
+  </si>
+  <si>
+    <t>158415250196805</t>
+  </si>
+  <si>
+    <t>IDEP165729236648VT3H</t>
+  </si>
+  <si>
+    <t>7837795315</t>
+  </si>
+  <si>
+    <t>MoninBehl25411@example.net</t>
+  </si>
+  <si>
+    <t>1977-06-04</t>
+  </si>
+  <si>
+    <t>461499203821422</t>
+  </si>
+  <si>
+    <t>089d9cc2b26899a0</t>
+  </si>
+  <si>
+    <t>090354898654068</t>
+  </si>
+  <si>
+    <t>IDEP651731193159YWV5</t>
+  </si>
+  <si>
+    <t>7206327327</t>
+  </si>
+  <si>
+    <t>JaswantBains27428@example.net</t>
+  </si>
+  <si>
+    <t>1985-03-06</t>
+  </si>
+  <si>
+    <t>835274440190900</t>
+  </si>
+  <si>
+    <t>27d3344be037a2b2</t>
+  </si>
+  <si>
+    <t>535857382360797</t>
+  </si>
+  <si>
+    <t>IDEP7615336887384SU2</t>
   </si>
 </sst>
 </file>
@@ -2419,7 +2788,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>619</v>
+        <v>743</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2539,7 +2908,7 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>626</v>
+        <v>749</v>
       </c>
       <c r="C2" t="s">
         <v>240</v>
@@ -2988,16 +3357,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>624</v>
+        <v>747</v>
       </c>
       <c r="C2" t="s">
-        <v>625</v>
+        <v>748</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>623</v>
+        <v>746</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3216,13 +3585,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>620</v>
+        <v>333</v>
       </c>
       <c r="E2" t="s">
-        <v>621</v>
+        <v>744</v>
       </c>
       <c r="F2" t="s">
-        <v>622</v>
+        <v>745</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3769,10 +4138,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>619</v>
+        <v>743</v>
       </c>
       <c r="E2" t="s">
-        <v>621</v>
+        <v>744</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3784,7 +4153,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>623</v>
+        <v>746</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3793,10 +4162,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>626</v>
+        <v>749</v>
       </c>
       <c r="M2" t="n">
-        <v>4225415.0</v>
+        <v>4233494.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3952,7 +4321,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>619</v>
+        <v>743</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3969,7 +4338,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>619</v>
+        <v>743</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3986,7 +4355,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>619</v>
+        <v>743</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -4003,7 +4372,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>619</v>
+        <v>743</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -4020,7 +4389,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>619</v>
+        <v>743</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -4106,7 +4475,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>623</v>
+        <v>746</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -4350,7 +4719,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>623</v>
+        <v>746</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -4565,7 +4934,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>620</v>
+        <v>333</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>
@@ -4648,7 +5017,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>626</v>
+        <v>749</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>110</v>
@@ -4946,7 +5315,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>626</v>
+        <v>749</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4966,7 +5335,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>626</v>
+        <v>749</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -4986,7 +5355,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>626</v>
+        <v>749</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -5006,7 +5375,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>626</v>
+        <v>749</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -5026,7 +5395,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>626</v>
+        <v>749</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -5046,7 +5415,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>626</v>
+        <v>749</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -5066,7 +5435,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>626</v>
+        <v>749</v>
       </c>
       <c r="C8">
         <v>725</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_LTBC1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_LTBC1_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3065" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3650" uniqueCount="871">
   <si>
     <t>TestCases</t>
   </si>
@@ -2293,6 +2293,369 @@
   </si>
   <si>
     <t>IDEP7615336887384SU2</t>
+  </si>
+  <si>
+    <t>8849371179</t>
+  </si>
+  <si>
+    <t>JaswantMasih19474@example.net</t>
+  </si>
+  <si>
+    <t>1986-09-20</t>
+  </si>
+  <si>
+    <t>044246532495287</t>
+  </si>
+  <si>
+    <t>7c53eafd0b3b4d44</t>
+  </si>
+  <si>
+    <t>258276336937185</t>
+  </si>
+  <si>
+    <t>8344404095</t>
+  </si>
+  <si>
+    <t>Nishita</t>
+  </si>
+  <si>
+    <t>AmritSurana31112@example.net</t>
+  </si>
+  <si>
+    <t>1995-04-10</t>
+  </si>
+  <si>
+    <t>028361012259689</t>
+  </si>
+  <si>
+    <t>3189bba275580dcf</t>
+  </si>
+  <si>
+    <t>674509481308133</t>
+  </si>
+  <si>
+    <t>9986486769</t>
+  </si>
+  <si>
+    <t>Vimala</t>
+  </si>
+  <si>
+    <t>KarimKapoor26940@example.net</t>
+  </si>
+  <si>
+    <t>1977-12-19</t>
+  </si>
+  <si>
+    <t>875517195886218</t>
+  </si>
+  <si>
+    <t>56027f65d52d75fb</t>
+  </si>
+  <si>
+    <t>360839148118917</t>
+  </si>
+  <si>
+    <t>IDEP167583738468F1K4</t>
+  </si>
+  <si>
+    <t>7361010462</t>
+  </si>
+  <si>
+    <t>SatishLoyal32573@example.net</t>
+  </si>
+  <si>
+    <t>1985-03-28</t>
+  </si>
+  <si>
+    <t>115041011709702</t>
+  </si>
+  <si>
+    <t>35606d5feaf03049</t>
+  </si>
+  <si>
+    <t>806980835008342</t>
+  </si>
+  <si>
+    <t>IDEP615784814868SVW7</t>
+  </si>
+  <si>
+    <t>7097668887</t>
+  </si>
+  <si>
+    <t>Alka</t>
+  </si>
+  <si>
+    <t>YogeshRaghavan90727@example.net</t>
+  </si>
+  <si>
+    <t>1971-01-26</t>
+  </si>
+  <si>
+    <t>486341105320726</t>
+  </si>
+  <si>
+    <t>9aacdc6008b751a8</t>
+  </si>
+  <si>
+    <t>697002934715263</t>
+  </si>
+  <si>
+    <t>IDEP51768652718193MZ</t>
+  </si>
+  <si>
+    <t>9506364603</t>
+  </si>
+  <si>
+    <t>Uma</t>
+  </si>
+  <si>
+    <t>VijayentSodhani58731@example.net</t>
+  </si>
+  <si>
+    <t>1988-03-28</t>
+  </si>
+  <si>
+    <t>582091430793229</t>
+  </si>
+  <si>
+    <t>67b8f0b09effd289</t>
+  </si>
+  <si>
+    <t>242374242394390</t>
+  </si>
+  <si>
+    <t>IDEP765189399888D385</t>
+  </si>
+  <si>
+    <t>6499562141</t>
+  </si>
+  <si>
+    <t>Basanti</t>
+  </si>
+  <si>
+    <t>GiaanSen52295@example.net</t>
+  </si>
+  <si>
+    <t>1980-05-15</t>
+  </si>
+  <si>
+    <t>818168504217180</t>
+  </si>
+  <si>
+    <t>7a6c8300a574af1a</t>
+  </si>
+  <si>
+    <t>724154310280730</t>
+  </si>
+  <si>
+    <t>7522429270</t>
+  </si>
+  <si>
+    <t>Shobha</t>
+  </si>
+  <si>
+    <t>AniruddhDas82136@example.net</t>
+  </si>
+  <si>
+    <t>1993-06-24</t>
+  </si>
+  <si>
+    <t>014574036619482</t>
+  </si>
+  <si>
+    <t>6cee010a87f05762</t>
+  </si>
+  <si>
+    <t>472042861566603</t>
+  </si>
+  <si>
+    <t>6629003720</t>
+  </si>
+  <si>
+    <t>Pamela</t>
+  </si>
+  <si>
+    <t>BinoyaRam67086@example.net</t>
+  </si>
+  <si>
+    <t>1979-06-21</t>
+  </si>
+  <si>
+    <t>895327294209635</t>
+  </si>
+  <si>
+    <t>d93ae8048835b55c</t>
+  </si>
+  <si>
+    <t>057526806063257</t>
+  </si>
+  <si>
+    <t>IDEP167516514428DHYP</t>
+  </si>
+  <si>
+    <t>7681035445</t>
+  </si>
+  <si>
+    <t>Hema</t>
+  </si>
+  <si>
+    <t>RamGopalKumar27311@example.net</t>
+  </si>
+  <si>
+    <t>1985-04-20</t>
+  </si>
+  <si>
+    <t>267881911651942</t>
+  </si>
+  <si>
+    <t>c86420565249942d</t>
+  </si>
+  <si>
+    <t>273394905962970</t>
+  </si>
+  <si>
+    <t>IDEP671516657389YGZW</t>
+  </si>
+  <si>
+    <t>9095500267</t>
+  </si>
+  <si>
+    <t>Munni</t>
+  </si>
+  <si>
+    <t>BijoyMammen35467@example.net</t>
+  </si>
+  <si>
+    <t>1986-05-15</t>
+  </si>
+  <si>
+    <t>608203756747263</t>
+  </si>
+  <si>
+    <t>4f916491a1042b50</t>
+  </si>
+  <si>
+    <t>180317664307311</t>
+  </si>
+  <si>
+    <t>IDEP716516949887H1IZ</t>
+  </si>
+  <si>
+    <t>8960703493</t>
+  </si>
+  <si>
+    <t>Chameli</t>
+  </si>
+  <si>
+    <t>ChandLata50797@example.net</t>
+  </si>
+  <si>
+    <t>1986-02-18</t>
+  </si>
+  <si>
+    <t>457169684506034</t>
+  </si>
+  <si>
+    <t>aa343a9dac937f69</t>
+  </si>
+  <si>
+    <t>816202791338128</t>
+  </si>
+  <si>
+    <t>IDEP567117885194GDFJ</t>
+  </si>
+  <si>
+    <t>8777676774</t>
+  </si>
+  <si>
+    <t>Farah</t>
+  </si>
+  <si>
+    <t>WahidVarkey29069@example.net</t>
+  </si>
+  <si>
+    <t>1994-08-13</t>
+  </si>
+  <si>
+    <t>129399266959693</t>
+  </si>
+  <si>
+    <t>00607e959647052f</t>
+  </si>
+  <si>
+    <t>157295440679824</t>
+  </si>
+  <si>
+    <t>IDEP7165189842276Y5L</t>
+  </si>
+  <si>
+    <t>7357626825</t>
+  </si>
+  <si>
+    <t>Kalyani</t>
+  </si>
+  <si>
+    <t>PreetJain27949@example.net</t>
+  </si>
+  <si>
+    <t>1970-07-21</t>
+  </si>
+  <si>
+    <t>205179604775903</t>
+  </si>
+  <si>
+    <t>bfbab76f7122c032</t>
+  </si>
+  <si>
+    <t>229235102932263</t>
+  </si>
+  <si>
+    <t>IDEP567128522577NLIR</t>
+  </si>
+  <si>
+    <t>7821665464</t>
+  </si>
+  <si>
+    <t>SumitHarjo15951@example.net</t>
+  </si>
+  <si>
+    <t>1990-01-12</t>
+  </si>
+  <si>
+    <t>731129893376130</t>
+  </si>
+  <si>
+    <t>f236b0ce0b2eef5a</t>
+  </si>
+  <si>
+    <t>836785574512055</t>
+  </si>
+  <si>
+    <t>IDEP517621535715ECLT</t>
+  </si>
+  <si>
+    <t>7510078786</t>
+  </si>
+  <si>
+    <t>Bagwati</t>
+  </si>
+  <si>
+    <t>AlexPrasad47252@example.net</t>
+  </si>
+  <si>
+    <t>1983-12-02</t>
+  </si>
+  <si>
+    <t>049315963560235</t>
+  </si>
+  <si>
+    <t>0e9c1bda5fb78446</t>
+  </si>
+  <si>
+    <t>983746734400012</t>
+  </si>
+  <si>
+    <t>IDEP167522557334XW2U</t>
   </si>
 </sst>
 </file>
@@ -2788,7 +3151,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>743</v>
+        <v>863</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2908,7 +3271,7 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>749</v>
+        <v>870</v>
       </c>
       <c r="C2" t="s">
         <v>240</v>
@@ -3357,16 +3720,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>747</v>
+        <v>868</v>
       </c>
       <c r="C2" t="s">
-        <v>748</v>
+        <v>869</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>746</v>
+        <v>867</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3585,13 +3948,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>333</v>
+        <v>864</v>
       </c>
       <c r="E2" t="s">
-        <v>744</v>
+        <v>865</v>
       </c>
       <c r="F2" t="s">
-        <v>745</v>
+        <v>866</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -4138,10 +4501,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>743</v>
+        <v>863</v>
       </c>
       <c r="E2" t="s">
-        <v>744</v>
+        <v>865</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -4153,7 +4516,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>746</v>
+        <v>867</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -4162,10 +4525,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>749</v>
+        <v>870</v>
       </c>
       <c r="M2" t="n">
-        <v>4233494.0</v>
+        <v>4234172.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -4321,7 +4684,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>743</v>
+        <v>863</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -4338,7 +4701,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>743</v>
+        <v>863</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -4355,7 +4718,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>743</v>
+        <v>863</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -4372,7 +4735,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>743</v>
+        <v>863</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -4389,7 +4752,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>743</v>
+        <v>863</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -4475,7 +4838,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>746</v>
+        <v>867</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -4719,7 +5082,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>746</v>
+        <v>867</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -4934,7 +5297,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>333</v>
+        <v>864</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>
@@ -5017,7 +5380,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>749</v>
+        <v>870</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>110</v>
@@ -5315,7 +5678,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>749</v>
+        <v>870</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -5335,7 +5698,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>749</v>
+        <v>870</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -5355,7 +5718,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>749</v>
+        <v>870</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -5375,7 +5738,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>749</v>
+        <v>870</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -5395,7 +5758,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>749</v>
+        <v>870</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -5415,7 +5778,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>749</v>
+        <v>870</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -5435,7 +5798,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>749</v>
+        <v>870</v>
       </c>
       <c r="C8">
         <v>725</v>
